--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1459805.05571011</v>
+        <v>1507118.941744132</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453903</v>
+        <v>5562152.400446148</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178671</v>
+        <v>2921012.045488844</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7656237.397253888</v>
+        <v>7856795.860734002</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.75157063803193</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -674,10 +676,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>8.55043562593119</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>129.1752199258842</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>244.8142722087067</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -883,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>128.1676752071942</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>213.7077146119316</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -911,10 +913,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -962,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U7" t="n">
-        <v>122.9656547788547</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.78936668881364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1148,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>91.50962425787277</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>169.4121708345415</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>68.60846330118147</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>16.55447303928995</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>58.11593919665214</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.68485424712848</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1607,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>397.85951440924</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1616,10 +1618,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>45.82170770786904</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751805</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.06736062834964</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>80.09751710528867</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>96.08513982486603</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2144,10 +2146,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>351.080144279057</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>156.8296905607016</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2305,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2326,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F23" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.7560630900389</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>112.819948100278</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2779,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.5952110672386</v>
+        <v>213.595211067239</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
-        <v>300.4920170745502</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -3016,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5952110672386</v>
+        <v>213.595211067239</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>88.37144488016007</v>
       </c>
       <c r="T32" t="n">
-        <v>117.4784251967216</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3271,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>43.42340976889709</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.31383608752321</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>137.8797272855246</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>253.733437780414</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>103.389544536615</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>262.5811302569448</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3749,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0.9769310763655584</v>
       </c>
       <c r="V41" t="n">
-        <v>290.2877743190789</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>43.73227063629082</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3977,13 +3979,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>266.4576082011641</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>220.9613502889753</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>140.9125412578591</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>42.43741174507674</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2514.534933932999</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C2" t="n">
-        <v>2104.410343246269</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D2" t="n">
-        <v>1699.94641333933</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E2" t="n">
-        <v>1285.606197856226</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F2" t="n">
-        <v>864.5757858099139</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8475017027461</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>1563.523614036569</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>1563.523614036569</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N2" t="n">
-        <v>1563.523614036569</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.487731972852</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>2567.644429892003</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>3677.1590577023</v>
       </c>
       <c r="V2" t="n">
-        <v>2929.36208237686</v>
+        <v>3327.321503038781</v>
       </c>
       <c r="W2" t="n">
-        <v>2929.36208237686</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="X2" t="n">
-        <v>2929.36208237686</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y2" t="n">
-        <v>2528.42540932495</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>1075.685744088994</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>1531.492000354292</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>2192.580172273581</v>
+        <v>573.2709418373363</v>
       </c>
       <c r="M3" t="n">
-        <v>2899.80256301423</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="N3" t="n">
-        <v>2899.80256301423</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O3" t="n">
-        <v>2899.80256301423</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P3" t="n">
-        <v>2899.80256301423</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q3" t="n">
-        <v>2899.80256301423</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.2770510559511</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>342.1836786176676</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>342.1836786176676</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>342.1836786176676</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>342.1836786176676</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S4" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="T4" t="n">
-        <v>1502.713419943787</v>
+        <v>1278.293356500249</v>
       </c>
       <c r="U4" t="n">
-        <v>1502.713419943787</v>
+        <v>995.4952090463732</v>
       </c>
       <c r="V4" t="n">
-        <v>1255.426276298629</v>
+        <v>721.6094639858952</v>
       </c>
       <c r="W4" t="n">
-        <v>976.356611807503</v>
+        <v>442.5397994947696</v>
       </c>
       <c r="X4" t="n">
-        <v>738.0127496671864</v>
+        <v>204.195937354453</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.2770510559511</v>
+        <v>204.195937354453</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1027.412090093932</v>
+        <v>1125.848704289529</v>
       </c>
       <c r="C5" t="n">
-        <v>617.2874994072025</v>
+        <v>715.7241136027993</v>
       </c>
       <c r="D5" t="n">
-        <v>487.8252012181175</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="E5" t="n">
-        <v>477.5253897754182</v>
+        <v>95.39380529996927</v>
       </c>
       <c r="F5" t="n">
-        <v>460.5353817695098</v>
+        <v>78.40379729406089</v>
       </c>
       <c r="G5" t="n">
-        <v>455.8475017027461</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>800.0739975051422</v>
       </c>
       <c r="L5" t="n">
-        <v>1309.338142568815</v>
+        <v>1512.66539731738</v>
       </c>
       <c r="M5" t="n">
-        <v>2034.355257957088</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N5" t="n">
-        <v>2759.372373345361</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>2571.87452311782</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>2571.87452311782</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V5" t="n">
-        <v>2222.036968454301</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.276667589469</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X5" t="n">
-        <v>1437.633269758422</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.633269758422</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>100.0930734189624</v>
       </c>
       <c r="K6" t="n">
-        <v>58.5872416475372</v>
+        <v>555.8993296842611</v>
       </c>
       <c r="L6" t="n">
-        <v>676.1022315638701</v>
+        <v>1216.987501603549</v>
       </c>
       <c r="M6" t="n">
-        <v>1401.119346952143</v>
+        <v>1216.987501603549</v>
       </c>
       <c r="N6" t="n">
-        <v>1401.119346952143</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="O6" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.437399245089</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.229667145236</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V7" t="n">
-        <v>950.3439220847581</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W7" t="n">
-        <v>671.2742575936325</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X7" t="n">
-        <v>432.9303954533159</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216.06195912886</v>
+        <v>2311.189076037318</v>
       </c>
       <c r="C8" t="n">
-        <v>1209.977772482534</v>
+        <v>1901.064485350588</v>
       </c>
       <c r="D8" t="n">
-        <v>1209.554246615999</v>
+        <v>1496.600555443649</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.254435173299</v>
+        <v>1082.260339960545</v>
       </c>
       <c r="F8" t="n">
-        <v>778.224023126987</v>
+        <v>661.229927914233</v>
       </c>
       <c r="G8" t="n">
-        <v>369.4957390198192</v>
+        <v>252.5016438070652</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P8" t="n">
-        <v>2888.805436687295</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>2450.095106583229</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.25755191971</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.25755191971</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.614154088662</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.677481036752</v>
+        <v>2721.410255701808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L9" t="n">
-        <v>514.3934979128359</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M9" t="n">
-        <v>1193.526080325524</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="N9" t="n">
-        <v>1193.526080325524</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="O9" t="n">
-        <v>1193.526080325524</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.437399245089</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>1065.639251791214</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V10" t="n">
-        <v>791.7535067307356</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W10" t="n">
-        <v>791.7535067307356</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X10" t="n">
-        <v>620.6301018473603</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y10" t="n">
-        <v>395.894403236125</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1367.723277165894</v>
+        <v>1723.675065350382</v>
       </c>
       <c r="C11" t="n">
-        <v>1367.723277165894</v>
+        <v>1313.550474663652</v>
       </c>
       <c r="D11" t="n">
-        <v>963.2593472589544</v>
+        <v>909.0865447567129</v>
       </c>
       <c r="E11" t="n">
-        <v>548.9191317758512</v>
+        <v>494.7463292736096</v>
       </c>
       <c r="F11" t="n">
-        <v>127.8887197295387</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1309.338142568815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M11" t="n">
-        <v>2034.355257957088</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N11" t="n">
-        <v>2759.372373345361</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3637.308595165853</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>3669.07417142618</v>
       </c>
       <c r="V11" t="n">
-        <v>2579.524527713341</v>
+        <v>3319.236616762661</v>
       </c>
       <c r="W11" t="n">
-        <v>2579.524527713341</v>
+        <v>2935.476315897829</v>
       </c>
       <c r="X11" t="n">
-        <v>2178.881129882293</v>
+        <v>2534.832918066782</v>
       </c>
       <c r="Y11" t="n">
-        <v>1777.944456830383</v>
+        <v>2133.896245014872</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>403.5699402716127</v>
       </c>
       <c r="M12" t="n">
-        <v>783.60435703581</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N12" t="n">
-        <v>1508.621472424083</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1090.278014938507</v>
+        <v>244.8092896655806</v>
       </c>
       <c r="C13" t="n">
-        <v>919.1846425002236</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>759.6899978231336</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>598.7791826914531</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>434.1480568020444</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>266.8976657275878</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>117.2902105330444</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1502.713419943787</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>1502.713419943787</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>1502.713419943787</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>1502.713419943787</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>1502.713419943787</v>
+        <v>469.544988276816</v>
       </c>
       <c r="Y13" t="n">
-        <v>1277.977721332551</v>
+        <v>244.8092896655806</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1333.800530964582</v>
+        <v>2124.157056153891</v>
       </c>
       <c r="C14" t="n">
-        <v>923.6759402778517</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D14" t="n">
-        <v>519.2120103709123</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E14" t="n">
-        <v>104.871794887809</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F14" t="n">
-        <v>104.871794887809</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K14" t="n">
-        <v>850.932214224331</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L14" t="n">
-        <v>1563.523614036569</v>
+        <v>1265.421903330477</v>
       </c>
       <c r="M14" t="n">
-        <v>2285.731225959755</v>
+        <v>2041.74049432223</v>
       </c>
       <c r="N14" t="n">
-        <v>2285.731225959755</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="O14" t="n">
-        <v>2929.36208237686</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W14" t="n">
-        <v>2545.601781512029</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="X14" t="n">
-        <v>2144.958383680981</v>
+        <v>2935.31490887029</v>
       </c>
       <c r="Y14" t="n">
-        <v>1744.021710629071</v>
+        <v>2534.37823581838</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>514.3934979128359</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L15" t="n">
-        <v>1175.481669832124</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M15" t="n">
-        <v>1755.231972814054</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="N15" t="n">
-        <v>1755.231972814054</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="O15" t="n">
-        <v>1755.231972814054</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="P15" t="n">
-        <v>1755.231972814054</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1357.420359404569</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U16" t="n">
-        <v>1074.622211950693</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V16" t="n">
-        <v>800.7364668902148</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W16" t="n">
-        <v>521.6668023990892</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X16" t="n">
-        <v>283.3229402587725</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4494.590496051882</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1456.463293052238</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1456.463293052238</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>1456.463293052238</v>
       </c>
       <c r="V19" t="n">
-        <v>640.0181946537314</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W19" t="n">
-        <v>360.9485301626057</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X19" t="n">
-        <v>122.6046680222891</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y19" t="n">
-        <v>122.6046680222891</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
         <v>490.5039577458317</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5938,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1100.295707834299</v>
+        <v>1464.228765462279</v>
       </c>
       <c r="V22" t="n">
-        <v>826.4099627738212</v>
+        <v>1190.343020401801</v>
       </c>
       <c r="W22" t="n">
-        <v>547.3402982826956</v>
+        <v>911.2733559106757</v>
       </c>
       <c r="X22" t="n">
-        <v>308.996436142379</v>
+        <v>672.929493770359</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>448.1937951591237</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5974,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1182.57754799176</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1537.369875986873</v>
+        <v>1508.683050775839</v>
       </c>
       <c r="U25" t="n">
-        <v>1537.369875986873</v>
+        <v>1225.884903321963</v>
       </c>
       <c r="V25" t="n">
-        <v>1537.369875986873</v>
+        <v>951.9991582614847</v>
       </c>
       <c r="W25" t="n">
-        <v>1537.369875986873</v>
+        <v>672.929493770359</v>
       </c>
       <c r="X25" t="n">
-        <v>1537.369875986873</v>
+        <v>672.929493770359</v>
       </c>
       <c r="Y25" t="n">
-        <v>1312.634177375637</v>
+        <v>448.1937951591237</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6211,10 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G26" t="n">
         <v>490.5039577458317</v>
@@ -6309,16 +6311,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.295707834299</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V28" t="n">
-        <v>826.4099627738212</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W28" t="n">
-        <v>547.3402982826956</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X28" t="n">
-        <v>308.996436142379</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3744.109543557316</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3360.349242692484</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1129.033635947823</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.295707834299</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V31" t="n">
-        <v>826.4099627738212</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W31" t="n">
-        <v>547.3402982826956</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X31" t="n">
-        <v>308.996436142379</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4572.920798793604</v>
       </c>
       <c r="T32" t="n">
-        <v>4408.238733368956</v>
+        <v>4350.714314740463</v>
       </c>
       <c r="U32" t="n">
-        <v>4408.238733368956</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6889,19 +6891,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X34" t="n">
-        <v>1384.298732171156</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F35" t="n">
-        <v>873.3089913790386</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>137.1057277602158</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -7020,16 +7022,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.2436976906228</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4596.211312725561</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="T37" t="n">
-        <v>1436.250826191383</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="U37" t="n">
-        <v>1296.978374387823</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="V37" t="n">
-        <v>1023.092629327345</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="W37" t="n">
-        <v>744.0229648362191</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="X37" t="n">
-        <v>505.6791026959025</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="Y37" t="n">
-        <v>280.9434040846672</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2494.579294402201</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C38" t="n">
-        <v>2084.454703715471</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D38" t="n">
-        <v>1679.990773808531</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E38" t="n">
-        <v>1265.650558325428</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F38" t="n">
-        <v>844.6201462791155</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G38" t="n">
-        <v>435.8918621719477</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V38" t="n">
-        <v>4090.140845814479</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W38" t="n">
-        <v>3706.380544949648</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X38" t="n">
-        <v>3305.7371471186</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y38" t="n">
-        <v>2904.80047406669</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>2615.69568868064</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M39" t="n">
-        <v>3458.672769375206</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N39" t="n">
-        <v>4332.330861486824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3463.374005025663</v>
+        <v>3732.43901428539</v>
       </c>
       <c r="C40" t="n">
-        <v>3292.280632587379</v>
+        <v>3561.345641847106</v>
       </c>
       <c r="D40" t="n">
-        <v>3132.785987910289</v>
+        <v>3401.850997170016</v>
       </c>
       <c r="E40" t="n">
-        <v>3132.785987910289</v>
+        <v>3401.850997170016</v>
       </c>
       <c r="F40" t="n">
-        <v>3132.785987910289</v>
+        <v>3237.219871280608</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>3237.219871280608</v>
       </c>
       <c r="H40" t="n">
         <v>3132.785987910289</v>
@@ -7357,25 +7359,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U40" t="n">
-        <v>4379.386737077264</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="V40" t="n">
-        <v>4379.386737077264</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="W40" t="n">
-        <v>4114.153272171259</v>
+        <v>3957.174712896625</v>
       </c>
       <c r="X40" t="n">
-        <v>3875.809410030943</v>
+        <v>3957.174712896625</v>
       </c>
       <c r="Y40" t="n">
-        <v>3651.073711419707</v>
+        <v>3732.43901428539</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1372.471433827675</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C41" t="n">
-        <v>1372.471433827675</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D41" t="n">
-        <v>968.0075039207352</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E41" t="n">
-        <v>553.6672884376319</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>553.6672884376319</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.856875555747</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N41" t="n">
-        <v>1394.856875555747</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O41" t="n">
-        <v>2038.487731972852</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P41" t="n">
-        <v>2567.644429892003</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T41" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U41" t="n">
-        <v>2450.095106583229</v>
+        <v>3327.321503038781</v>
       </c>
       <c r="V41" t="n">
-        <v>2156.875132523553</v>
+        <v>3327.321503038781</v>
       </c>
       <c r="W41" t="n">
-        <v>1773.114831658722</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="X41" t="n">
-        <v>1372.471433827675</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y41" t="n">
-        <v>1372.471433827675</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>2108.180678707345</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>2981.838770818963</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.921091948674</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="C43" t="n">
-        <v>976.8277195103904</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="D43" t="n">
-        <v>817.3330748333003</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="E43" t="n">
-        <v>656.4222597016197</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="F43" t="n">
-        <v>491.791133812211</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="G43" t="n">
-        <v>324.5407427377544</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="H43" t="n">
-        <v>174.9332875432111</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>3499.404093244767</v>
       </c>
       <c r="T43" t="n">
-        <v>1587.986138268387</v>
+        <v>3455.230082501039</v>
       </c>
       <c r="U43" t="n">
-        <v>1587.986138268387</v>
+        <v>3172.431935047163</v>
       </c>
       <c r="V43" t="n">
-        <v>1587.986138268387</v>
+        <v>2898.546189986685</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.986138268387</v>
+        <v>2619.47652549556</v>
       </c>
       <c r="X43" t="n">
-        <v>1560.356496953953</v>
+        <v>2381.132663355243</v>
       </c>
       <c r="Y43" t="n">
-        <v>1335.620798342718</v>
+        <v>2156.396964744008</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1554.755297049321</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C44" t="n">
-        <v>1554.755297049321</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D44" t="n">
-        <v>1554.755297049321</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>1285.606197856226</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>864.5757858099139</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>455.8475017027461</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7727131152915</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L44" t="n">
-        <v>312.7727131152915</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M44" t="n">
-        <v>669.8397601674739</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N44" t="n">
-        <v>1394.856875555747</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O44" t="n">
-        <v>2038.487731972852</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.976476713811</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.976476713811</v>
+        <v>3166.754485294126</v>
       </c>
       <c r="X44" t="n">
-        <v>1964.976476713811</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.976476713811</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L45" t="n">
-        <v>514.3934979128359</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M45" t="n">
-        <v>514.3934979128359</v>
+        <v>1577.781169841152</v>
       </c>
       <c r="N45" t="n">
-        <v>809.8539351009829</v>
+        <v>1577.781169841152</v>
       </c>
       <c r="O45" t="n">
-        <v>1513.811025646877</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P45" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q45" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.8339570396815</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="C46" t="n">
-        <v>219.4980567792177</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="D46" t="n">
-        <v>219.4980567792177</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="E46" t="n">
-        <v>58.5872416475372</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="F46" t="n">
-        <v>58.5872416475372</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1162.045631125</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U46" t="n">
-        <v>879.2474836711237</v>
+        <v>1320.316666394272</v>
       </c>
       <c r="V46" t="n">
-        <v>879.2474836711237</v>
+        <v>1046.430921333794</v>
       </c>
       <c r="W46" t="n">
-        <v>600.1778191799981</v>
+        <v>767.3612568426679</v>
       </c>
       <c r="X46" t="n">
-        <v>361.8339570396815</v>
+        <v>529.0173947023513</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.8339570396815</v>
+        <v>304.281696091116</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>572.9515109149573</v>
+        <v>537.5843517396877</v>
       </c>
       <c r="P2" t="n">
         <v>628.1510783507341</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>560.7155587704846</v>
       </c>
       <c r="M3" t="n">
-        <v>771.9303349915989</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8079,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>566.0784187743189</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>264.8965524252774</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8292,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>78.01283091279323</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>679.867038877852</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8316,7 +8318,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,22 +8461,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>728.4894545970429</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>117.8531087696411</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,10 +8537,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>743.5567912259809</v>
+        <v>429.1692081600166</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8550,7 +8552,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8696,22 +8698,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>264.8965524252774</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>98.04453218646462</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>660.231241700964</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8930,25 +8932,25 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>498.8803612208102</v>
       </c>
       <c r="M14" t="n">
-        <v>822.792862763294</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
@@ -9012,7 +9014,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>643.1706503868311</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9021,7 +9023,7 @@
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>232.2433371714216</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9416,7 +9418,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9480,25 +9482,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>595.4978220354909</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9957,19 +9959,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>885.2086776792871</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10188,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
@@ -10200,10 +10202,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>363.0339661689075</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10440,7 +10442,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10668,19 +10670,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>178.5117997957786</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10905,7 +10907,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
@@ -10914,7 +10916,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,19 +11068,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>179.6727830297039</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>101.2005034130957</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11145,13 +11147,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9640093582398</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>184.8939989313463</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11318,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>351.6382794423834</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>336.0325379649146</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23312,13 +23314,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>237.935413783795</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>57.06664624006497</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>178.2755692717849</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.163830370622577</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>358.8192935582271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23552,10 +23554,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884461</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>187.994239071985</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.7553487017543</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>104.4303333336002</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24139,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24178,10 +24180,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>123.1404754186354</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F23" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.0666462400651</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>124.3333035327869</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24449,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.893130557884348</v>
+        <v>8.893130557883893</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
-        <v>45.84716204233393</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557884348</v>
+        <v>8.893130557883893</v>
       </c>
     </row>
     <row r="32">
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>45.55681957368007</v>
       </c>
       <c r="T32" t="n">
-        <v>102.5059940158882</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>42.06483528720048</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>19.10615505383113</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>142.0904386938125</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>54.06597461814519</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>44.7218361059829</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25597,22 +25599,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>13.69783758926951</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.5129557467194</v>
       </c>
       <c r="V41" t="n">
-        <v>56.05140479780522</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>193.4209809967741</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>143.7392051271082</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>175.6756135637617</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>28.46989745604156</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26041,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>72.74517369164036</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523433.1653392077</v>
+        <v>592074.0889977628</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523433.1653392079</v>
+        <v>592074.0889977628</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680674.3687074701</v>
+        <v>680674.36870747</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680674.3687074701</v>
+        <v>680674.3687074702</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680674.3687074702</v>
+        <v>680674.36870747</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680674.3687074701</v>
+        <v>680674.3687074699</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>523433.1653392077</v>
+        <v>592074.0889977628</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523433.165339208</v>
+        <v>592074.088997763</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>374629.5039746509</v>
+      </c>
+      <c r="C2" t="n">
+        <v>374629.503974651</v>
+      </c>
+      <c r="D2" t="n">
         <v>374629.5039746511</v>
       </c>
-      <c r="C2" t="n">
-        <v>374629.5039746511</v>
-      </c>
-      <c r="D2" t="n">
-        <v>374629.503974651</v>
-      </c>
       <c r="E2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776286</v>
       </c>
       <c r="F2" t="n">
-        <v>256148.1447404636</v>
+        <v>289738.3839776287</v>
       </c>
       <c r="G2" t="n">
         <v>333095.9676653581</v>
       </c>
       <c r="H2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="I2" t="n">
         <v>333095.967665358</v>
@@ -26347,13 +26349,13 @@
         <v>333095.9676653579</v>
       </c>
       <c r="N2" t="n">
-        <v>333095.9676653581</v>
+        <v>333095.967665358</v>
       </c>
       <c r="O2" t="n">
-        <v>256148.1447404636</v>
+        <v>289738.3839776287</v>
       </c>
       <c r="P2" t="n">
-        <v>256148.1447404636</v>
+        <v>289738.3839776287</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118142.4647237391</v>
+        <v>84888.90953886868</v>
       </c>
       <c r="C4" t="n">
-        <v>118142.4647237391</v>
+        <v>84888.90953886868</v>
       </c>
       <c r="D4" t="n">
-        <v>118142.4647237391</v>
+        <v>84888.90953886868</v>
       </c>
       <c r="E4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="F4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="H4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
         <v>738.1279301446466</v>
@@ -26454,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="P4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67091.01668431137</v>
+        <v>-108709.8442690073</v>
       </c>
       <c r="C6" t="n">
-        <v>178333.1355987838</v>
+        <v>200088.8973430365</v>
       </c>
       <c r="D6" t="n">
-        <v>178333.1355987837</v>
+        <v>200088.8973430366</v>
       </c>
       <c r="E6" t="n">
-        <v>211088.5223114491</v>
+        <v>233091.5622197672</v>
       </c>
       <c r="F6" t="n">
-        <v>211088.522311449</v>
+        <v>233091.5622197673</v>
       </c>
       <c r="G6" t="n">
-        <v>142757.4450582262</v>
+        <v>194589.2331367075</v>
       </c>
       <c r="H6" t="n">
-        <v>261492.62949034</v>
+        <v>261492.6294903402</v>
       </c>
       <c r="I6" t="n">
-        <v>261492.62949034</v>
+        <v>261492.6294903401</v>
       </c>
       <c r="J6" t="n">
-        <v>69880.12631998734</v>
+        <v>20401.03640260349</v>
       </c>
       <c r="K6" t="n">
         <v>261492.6294903401</v>
       </c>
       <c r="L6" t="n">
-        <v>261492.6294903401</v>
+        <v>261492.62949034</v>
       </c>
       <c r="M6" t="n">
+        <v>261492.6294903399</v>
+      </c>
+      <c r="N6" t="n">
         <v>261492.62949034</v>
       </c>
-      <c r="N6" t="n">
-        <v>261492.6294903401</v>
-      </c>
       <c r="O6" t="n">
-        <v>211088.522311449</v>
+        <v>233091.5622197673</v>
       </c>
       <c r="P6" t="n">
-        <v>211088.522311449</v>
+        <v>233091.5622197673</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>392.3673972298126</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>245.9394511971538</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>56.64748940421973</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27549,13 +27551,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27590,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>26.33261540116661</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>272.2516154006759</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>196.4890987163406</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27791,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27825,10 +27827,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U7" t="n">
-        <v>157.0045112004823</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>324.3296011790309</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>216.2897881406864</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28026,7 +28028,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>66.5482526843719</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="11">
@@ -34705,13 +34707,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>479.7617352891742</v>
+        <v>444.3945761139046</v>
       </c>
       <c r="P2" t="n">
         <v>534.50171506985</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M3" t="n">
-        <v>714.3660512531815</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>476.9420291011018</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>171.7067767994943</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>26.64359211279323</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>623.7525150670029</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35179,22 +35181,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>635.5771638404236</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>24.20374548875697</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>685.9925074875634</v>
+        <v>371.6049244215992</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35416,22 +35418,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>171.7067767994943</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>8.010727787312575</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>333.185881862945</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>602.479762700964</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>403.3949631579654</v>
       </c>
       <c r="M14" t="n">
-        <v>729.5026383062485</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
@@ -35732,7 +35734,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>585.6063666484137</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35890,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>176.1288133605725</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>542.304428641741</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>309.8405727751575</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37160,7 +37162,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
@@ -37634,7 +37636,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,19 +37788,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>86.3825585726584</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>8.010727787312575</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>360.6737849011943</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>91.98170817472702</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38038,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>298.4448860486334</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1507118.941744132</v>
+        <v>1505620.254435001</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2921012.045488844</v>
+        <v>2921012.045488842</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7856795.860734002</v>
+        <v>7856795.860734003</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>324.4934967468959</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -676,10 +676,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>8.55043562593119</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.1752199258842</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>129.0052255887673</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>213.7077146119316</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>118.7588392363241</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>71.4744588433812</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>228.2601210751807</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1147,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>277.405407100077</v>
       </c>
       <c r="H8" t="n">
-        <v>91.50962425787277</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1359,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>312.1192117649398</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1381,13 +1381,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>16.55447303928995</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1435,10 +1435,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>57.68485424712848</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>397.85951440924</v>
+        <v>298.8969300548653</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.43741174507674</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751807</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>343.2559819443612</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>80.09751710528867</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2146,10 +2146,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>351.080144279057</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>156.8296905607016</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>183.6192611853836</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2326,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>112.819948100278</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2566,10 +2566,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>316.0695590374758</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.595211067239</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.595211067239</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>42.43741174507669</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>43.42340976889709</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>222.2025742562868</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.31383608752321</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>119.8051733265735</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>103.389544536615</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>39.81110169238585</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3793,19 +3793,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.9769310763655584</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>43.73227063629082</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>220.9613502889753</v>
+        <v>146.718933984235</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>42.43741174507674</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2132.40334945755</v>
+        <v>2048.930484400664</v>
       </c>
       <c r="C2" t="n">
-        <v>1722.27875877082</v>
+        <v>2042.846297754338</v>
       </c>
       <c r="D2" t="n">
-        <v>1317.814828863881</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E2" t="n">
-        <v>903.4746133807774</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F2" t="n">
-        <v>482.444201334465</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G2" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H2" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
         <v>73.71591722729714</v>
@@ -4336,13 +4336,13 @@
         <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>1578.652289616329</v>
+        <v>1374.97206355199</v>
       </c>
       <c r="M2" t="n">
-        <v>2354.970880608083</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="N2" t="n">
-        <v>2354.970880608083</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O2" t="n">
         <v>2794.921510960849</v>
@@ -4360,22 +4360,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U2" t="n">
-        <v>3677.1590577023</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V2" t="n">
-        <v>3327.321503038781</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="W2" t="n">
-        <v>2943.561202173949</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="X2" t="n">
-        <v>2943.561202173949</v>
+        <v>2456.047933076659</v>
       </c>
       <c r="Y2" t="n">
-        <v>2542.624529122039</v>
+        <v>2055.111260024749</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>752.5467591138315</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C3" t="n">
-        <v>618.5516878627773</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D3" t="n">
-        <v>501.6545300821697</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E3" t="n">
-        <v>381.1617140744977</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F3" t="n">
-        <v>272.2018342570022</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G3" t="n">
-        <v>165.2117215713409</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H3" t="n">
-        <v>94.46450860705697</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I3" t="n">
-        <v>73.71591722729714</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>73.71591722729714</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K3" t="n">
-        <v>73.71591722729714</v>
+        <v>2095.112921779656</v>
       </c>
       <c r="L3" t="n">
-        <v>573.2709418373363</v>
+        <v>2756.201093698944</v>
       </c>
       <c r="M3" t="n">
-        <v>1416.248022531903</v>
+        <v>3599.17817439351</v>
       </c>
       <c r="N3" t="n">
-        <v>1416.248022531903</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="O3" t="n">
-        <v>2120.205113077797</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="P3" t="n">
-        <v>2120.205113077797</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="Q3" t="n">
-        <v>2120.205113077797</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="R3" t="n">
-        <v>2120.205113077797</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S3" t="n">
-        <v>2012.215103192106</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T3" t="n">
-        <v>1852.873239379114</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U3" t="n">
-        <v>1655.522428517333</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V3" t="n">
-        <v>1441.810901510367</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W3" t="n">
-        <v>1228.577733246696</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X3" t="n">
-        <v>1052.251751385588</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y3" t="n">
-        <v>892.8497917494182</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.71591722729714</v>
+        <v>1013.44231233389</v>
       </c>
       <c r="C4" t="n">
-        <v>73.71591722729714</v>
+        <v>842.3489398956069</v>
       </c>
       <c r="D4" t="n">
-        <v>73.71591722729714</v>
+        <v>682.8542952185169</v>
       </c>
       <c r="E4" t="n">
-        <v>73.71591722729714</v>
+        <v>521.9434800868363</v>
       </c>
       <c r="F4" t="n">
-        <v>73.71591722729714</v>
+        <v>357.3123541974276</v>
       </c>
       <c r="G4" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="H4" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4515,25 +4515,25 @@
         <v>1517.842095523547</v>
       </c>
       <c r="S4" t="n">
-        <v>1517.842095523547</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T4" t="n">
-        <v>1278.293356500249</v>
+        <v>1201.142018727935</v>
       </c>
       <c r="U4" t="n">
-        <v>995.4952090463732</v>
+        <v>1201.142018727935</v>
       </c>
       <c r="V4" t="n">
-        <v>721.6094639858952</v>
+        <v>1201.142018727935</v>
       </c>
       <c r="W4" t="n">
-        <v>442.5397994947696</v>
+        <v>1201.142018727935</v>
       </c>
       <c r="X4" t="n">
-        <v>204.195937354453</v>
+        <v>1201.142018727935</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.195937354453</v>
+        <v>1201.142018727935</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1125.848704289529</v>
+        <v>2338.713535611511</v>
       </c>
       <c r="C5" t="n">
-        <v>715.7241136027993</v>
+        <v>1928.588944924782</v>
       </c>
       <c r="D5" t="n">
-        <v>311.2601836958598</v>
+        <v>1524.125015017842</v>
       </c>
       <c r="E5" t="n">
-        <v>95.39380529996927</v>
+        <v>1109.784799534739</v>
       </c>
       <c r="F5" t="n">
-        <v>78.40379729406089</v>
+        <v>688.7543874884263</v>
       </c>
       <c r="G5" t="n">
-        <v>73.71591722729714</v>
+        <v>280.0261033812585</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
         <v>73.71591722729714</v>
@@ -4570,25 +4570,25 @@
         <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>800.0739975051422</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>1512.66539731738</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="M5" t="n">
-        <v>2288.983988309134</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N5" t="n">
-        <v>3042.165004947752</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O5" t="n">
-        <v>3685.795861364857</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P5" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
@@ -4597,22 +4597,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>3328.308302105817</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U5" t="n">
-        <v>3071.247810365327</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V5" t="n">
-        <v>2721.410255701808</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W5" t="n">
-        <v>2337.649954836976</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.006557005929</v>
+        <v>3149.871388327911</v>
       </c>
       <c r="Y5" t="n">
-        <v>1536.069883954019</v>
+        <v>2748.934715276001</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>100.0930734189624</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>555.8993296842611</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L6" t="n">
-        <v>1216.987501603549</v>
+        <v>824.9826106807429</v>
       </c>
       <c r="M6" t="n">
-        <v>1216.987501603549</v>
+        <v>824.9826106807429</v>
       </c>
       <c r="N6" t="n">
-        <v>2090.645593715167</v>
+        <v>824.9826106807429</v>
       </c>
       <c r="O6" t="n">
-        <v>2090.645593715167</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="P6" t="n">
         <v>2090.645593715167</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="C7" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="D7" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="E7" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="F7" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="G7" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="H7" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I7" t="n">
         <v>73.71591722729714</v>
@@ -4749,28 +4749,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="T7" t="n">
-        <v>1372.549034984329</v>
+        <v>1278.293356500249</v>
       </c>
       <c r="U7" t="n">
-        <v>1089.750887530453</v>
+        <v>1278.293356500249</v>
       </c>
       <c r="V7" t="n">
-        <v>815.8651424699747</v>
+        <v>1004.407611439771</v>
       </c>
       <c r="W7" t="n">
-        <v>536.795477978849</v>
+        <v>725.3379469486454</v>
       </c>
       <c r="X7" t="n">
-        <v>298.4516158385325</v>
+        <v>486.9940848083288</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.71591722729714</v>
+        <v>262.2583861970934</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2311.189076037318</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C8" t="n">
-        <v>1901.064485350588</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D8" t="n">
-        <v>1496.600555443649</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E8" t="n">
-        <v>1082.260339960545</v>
+        <v>861.3055738758062</v>
       </c>
       <c r="F8" t="n">
-        <v>661.229927914233</v>
+        <v>440.2751618294938</v>
       </c>
       <c r="G8" t="n">
-        <v>252.5016438070652</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H8" t="n">
         <v>160.067679910224</v>
@@ -4810,46 +4810,46 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L8" t="n">
-        <v>786.3073170395352</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M8" t="n">
-        <v>1562.625908031289</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N8" t="n">
-        <v>2191.847300233308</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O8" t="n">
-        <v>2835.478156650413</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P8" t="n">
-        <v>3364.634854569565</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>3328.308302105817</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>3071.247810365327</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V8" t="n">
-        <v>2721.410255701808</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W8" t="n">
-        <v>2721.410255701808</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X8" t="n">
-        <v>2721.410255701808</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y8" t="n">
-        <v>2721.410255701808</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>529.5221734925958</v>
       </c>
       <c r="L9" t="n">
-        <v>1190.610345411884</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M9" t="n">
-        <v>1558.499220589267</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="N9" t="n">
-        <v>1558.499220589267</v>
+        <v>1403.180265604214</v>
       </c>
       <c r="O9" t="n">
-        <v>1558.499220589267</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
         <v>2120.205113077797</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.71591722729714</v>
+        <v>244.8092896655806</v>
       </c>
       <c r="C10" t="n">
         <v>73.71591722729714</v>
@@ -4992,22 +4992,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1363.566074824849</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U10" t="n">
-        <v>1080.767927370974</v>
+        <v>1448.543966362781</v>
       </c>
       <c r="V10" t="n">
-        <v>806.8821823104956</v>
+        <v>1174.658221302303</v>
       </c>
       <c r="W10" t="n">
-        <v>527.81251781937</v>
+        <v>895.5885568111769</v>
       </c>
       <c r="X10" t="n">
-        <v>289.4686556790534</v>
+        <v>657.2446946708603</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.71591722729714</v>
+        <v>432.508996059625</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1723.675065350382</v>
+        <v>1927.428775172487</v>
       </c>
       <c r="C11" t="n">
-        <v>1313.550474663652</v>
+        <v>1612.15684409679</v>
       </c>
       <c r="D11" t="n">
-        <v>909.0865447567129</v>
+        <v>1207.69291418985</v>
       </c>
       <c r="E11" t="n">
-        <v>494.7463292736096</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F11" t="n">
-        <v>73.71591722729714</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H11" t="n">
         <v>73.71591722729714</v>
@@ -5047,46 +5047,46 @@
         <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1578.652289616329</v>
+        <v>1512.66539731738</v>
       </c>
       <c r="M11" t="n">
-        <v>2354.970880608083</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N11" t="n">
-        <v>3108.151897246701</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O11" t="n">
-        <v>3108.151897246701</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P11" t="n">
-        <v>3637.308595165853</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U11" t="n">
-        <v>3669.07417142618</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V11" t="n">
-        <v>3319.236616762661</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W11" t="n">
-        <v>2935.476315897829</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X11" t="n">
-        <v>2534.832918066782</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2133.896245014872</v>
+        <v>2337.649954836976</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K12" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L12" t="n">
-        <v>403.5699402716127</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M12" t="n">
-        <v>1246.547020966179</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="N12" t="n">
-        <v>2120.205113077797</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>1426.292121601123</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q12" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R12" t="n">
         <v>2120.205113077797</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.8092896655806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
         <v>73.71591722729714</v>
@@ -5241,10 +5241,10 @@
         <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>469.544988276816</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.8092896655806</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2124.157056153891</v>
+        <v>1509.609005154361</v>
       </c>
       <c r="C14" t="n">
-        <v>1722.27875877082</v>
+        <v>1207.69291418985</v>
       </c>
       <c r="D14" t="n">
-        <v>1317.814828863881</v>
+        <v>1207.69291418985</v>
       </c>
       <c r="E14" t="n">
-        <v>903.4746133807774</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F14" t="n">
-        <v>482.444201334465</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
         <v>73.71591722729714</v>
@@ -5278,52 +5278,52 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>866.0608898040909</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>1265.421903330477</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>2041.74049432223</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N14" t="n">
-        <v>2794.921510960849</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O14" t="n">
-        <v>2794.921510960849</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P14" t="n">
-        <v>3324.07820888</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U14" t="n">
-        <v>3685.795861364857</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V14" t="n">
-        <v>3335.958306701338</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W14" t="n">
-        <v>3335.958306701338</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X14" t="n">
-        <v>2935.31490887029</v>
+        <v>2320.76685787076</v>
       </c>
       <c r="Y14" t="n">
-        <v>2534.37823581838</v>
+        <v>1919.83018481885</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>722.3350310552291</v>
       </c>
       <c r="L15" t="n">
-        <v>1383.423202974517</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.423202974517</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="N15" t="n">
-        <v>1383.423202974517</v>
+        <v>1595.993123166847</v>
       </c>
       <c r="O15" t="n">
-        <v>1383.423202974517</v>
+        <v>1595.993123166847</v>
       </c>
       <c r="P15" t="n">
-        <v>1770.360648393814</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
         <v>2120.205113077797</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.71591722729714</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="C16" t="n">
         <v>73.71591722729714</v>
@@ -5466,22 +5466,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1372.549034984329</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U16" t="n">
-        <v>1089.750887530453</v>
+        <v>1320.316666394272</v>
       </c>
       <c r="V16" t="n">
-        <v>815.8651424699747</v>
+        <v>1046.430921333794</v>
       </c>
       <c r="W16" t="n">
-        <v>536.795477978849</v>
+        <v>767.3612568426679</v>
       </c>
       <c r="X16" t="n">
-        <v>298.4516158385325</v>
+        <v>529.0173947023513</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.71591722729714</v>
+        <v>304.281696091116</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U17" t="n">
-        <v>4405.12439279065</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>916.2303367455215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>916.2303367455215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
         <v>1789.888428857139</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1456.463293052238</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1456.463293052238</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1456.463293052238</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1182.57754799176</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1182.57754799176</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.57754799176</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>2959.412569640574</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>549.0499539559215</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N21" t="n">
-        <v>1085.931338311245</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1464.228765462279</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.343020401801</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>911.2733559106757</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>672.929493770359</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>448.1937951591237</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1253.007044501816</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1814.712936990346</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6177,22 +6177,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1508.683050775839</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1225.884903321963</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>951.9991582614847</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>672.929493770359</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>672.929493770359</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>448.1937951591237</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F26" t="n">
-        <v>490.5039577458317</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G26" t="n">
         <v>490.5039577458317</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.027001052593</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>3865.952252993488</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>3586.882588502363</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>3348.538726362046</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3865.952252993488</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3586.882588502363</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3348.538726362046</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>3458.672769375206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>4332.330861486824</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.1097701603972</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>786.8890373059935</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>548.5451751656769</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D35" t="n">
-        <v>1692.113136769081</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
-        <v>1277.772921285978</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>856.7425092396657</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>448.0142251324978</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1057277602158</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N36" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4596.211312725561</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4409.819544605471</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4409.819544605471</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4409.819544605471</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4409.819544605471</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4409.819544605471</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>4409.819544605471</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2359.298219196301</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.173628509571</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1544.709698602632</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1130.369483119528</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>709.339071073216</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>300.6107869660482</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4563.732881158784</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U38" t="n">
-        <v>4304.697325272099</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V38" t="n">
-        <v>3954.85977060858</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W38" t="n">
-        <v>3571.099469743748</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X38" t="n">
-        <v>3170.456071912701</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y38" t="n">
-        <v>2769.519398860791</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="39">
@@ -7256,13 +7256,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>423.0977207349383</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.074801429505</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3732.43901428539</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>3561.345641847106</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>3401.850997170016</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>3401.850997170016</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>3237.219871280608</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>3237.219871280608</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>4236.244377387751</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>4236.244377387751</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>3957.174712896625</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>3957.174712896625</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>3732.43901428539</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2132.40334945755</v>
+        <v>1718.063133974447</v>
       </c>
       <c r="C41" t="n">
-        <v>1722.27875877082</v>
+        <v>1307.938543287717</v>
       </c>
       <c r="D41" t="n">
-        <v>1317.814828863881</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="E41" t="n">
         <v>903.4746133807774</v>
@@ -7423,16 +7423,16 @@
         <v>2354.970880608083</v>
       </c>
       <c r="N41" t="n">
-        <v>3108.151897246701</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="O41" t="n">
-        <v>3116.082517756141</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P41" t="n">
-        <v>3645.239215675292</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q41" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
@@ -7441,22 +7441,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T41" t="n">
-        <v>3328.308302105817</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U41" t="n">
-        <v>3327.321503038781</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V41" t="n">
-        <v>3327.321503038781</v>
+        <v>2943.616739754949</v>
       </c>
       <c r="W41" t="n">
-        <v>2943.561202173949</v>
+        <v>2559.856438890117</v>
       </c>
       <c r="X41" t="n">
-        <v>2943.561202173949</v>
+        <v>2159.21304105907</v>
       </c>
       <c r="Y41" t="n">
-        <v>2542.624529122039</v>
+        <v>1758.27636800716</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>1639.306665514357</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>1639.306665514357</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L42" t="n">
-        <v>1639.306665514357</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="M42" t="n">
-        <v>2108.180678707345</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="N42" t="n">
-        <v>2981.838770818963</v>
+        <v>1140.186866901548</v>
       </c>
       <c r="O42" t="n">
-        <v>3685.795861364857</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P42" t="n">
-        <v>3685.795861364857</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q42" t="n">
-        <v>3685.795861364857</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R42" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3499.404093244767</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3455.230082501039</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>3172.431935047163</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>2898.546189986685</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>2619.47652549556</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>2381.132663355243</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2132.40334945755</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.27875877082</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.814828863881</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E44" t="n">
-        <v>903.4746133807774</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F44" t="n">
-        <v>482.444201334465</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G44" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H44" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I44" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>1324.466818148575</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>2100.785409140329</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N44" t="n">
-        <v>2191.847300233308</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O44" t="n">
-        <v>2835.478156650413</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P44" t="n">
-        <v>3364.634854569565</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
         <v>3685.795861364857</v>
@@ -7675,25 +7675,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>3550.514786158958</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V44" t="n">
-        <v>3550.514786158958</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W44" t="n">
-        <v>3166.754485294126</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="X44" t="n">
-        <v>2943.561202173949</v>
+        <v>2930.696871542429</v>
       </c>
       <c r="Y44" t="n">
-        <v>2542.624529122039</v>
+        <v>2529.760198490519</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>734.8040891465854</v>
+        <v>1277.228032383231</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.781169841152</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.781169841152</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O45" t="n">
         <v>2120.205113077797</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>116.5819896970716</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>116.5819896970716</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>116.5819896970716</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>116.5819896970716</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>116.5819896970716</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>116.5819896970716</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>116.5819896970716</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
         <v>73.71591722729714</v>
@@ -7836,22 +7836,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1320.316666394272</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>1046.430921333794</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>767.3612568426679</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>529.0173947023513</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
-        <v>304.281696091116</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>609.5370887172882</v>
       </c>
       <c r="M2" t="n">
         <v>877.4504173780091</v>
@@ -7993,7 +7993,7 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>537.5843517396877</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
         <v>628.1510783507341</v>
@@ -8060,19 +8060,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>560.7155587704846</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M3" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>110.8279061298275</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8081,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>566.0784187743189</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>877.4504173780091</v>
+        <v>630.7132023368783</v>
       </c>
       <c r="N5" t="n">
         <v>853.701196452193</v>
@@ -8233,13 +8233,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>78.01283091279323</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>159.7989476750044</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8458,13 +8458,13 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>649.0966401699908</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>728.4894545970429</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>429.1692081600166</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>398.7826541787577</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>748.6212642378845</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8704,16 +8704,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.04453218646462</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>371.9455010937738</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>498.8803612208102</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4504173780091</v>
+        <v>533.0482772261441</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>445.1055394667395</v>
+        <v>200.5303479970833</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>232.2433371714216</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>915.4839494260226</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
@@ -9482,28 +9482,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>595.4978220354909</v>
+        <v>571.2382659937654</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>384.9956049197649</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>885.2086776792871</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>178.5117997957786</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,16 +10904,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
@@ -11071,19 +11071,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.701196452193</v>
+        <v>578.2731756478622</v>
       </c>
       <c r="O41" t="n">
-        <v>101.2005034130957</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
@@ -11147,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>531.174398074769</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>97.05286247586417</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11308,16 +11308,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>184.8939989313463</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>616.6125049502444</v>
       </c>
       <c r="M45" t="n">
         <v>909.0562844399999</v>
@@ -11390,7 +11390,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>93.90413301492276</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>237.935413783795</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>178.2755692717849</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.163830370622577</v>
+        <v>107.1264147249972</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>126.9450269688239</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23706,7 +23706,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884234</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>104.4303333336002</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>45.55681957368</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24180,10 +24180,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>123.1404754186354</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24378,7 +24378,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24417,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>124.3333035327869</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>88.57144222862036</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.893130557883893</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557883893</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>126.945026968824</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25128,7 +25128,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06483528720048</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>32.28731256679822</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.10615505383113</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>187.9942390719856</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>36.46078111520806</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>44.7218361059829</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25599,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>366.3078661754587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>253.5129557467194</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>193.4209809967741</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>175.6756135637617</v>
+        <v>249.9180298685019</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26043,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>72.74517369164036</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>592074.0889977628</v>
+        <v>592074.0889977629</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>592074.0889977628</v>
+        <v>592074.0889977629</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680674.3687074701</v>
+        <v>680674.3687074702</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680674.36870747</v>
+        <v>680674.3687074701</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680674.3687074702</v>
+        <v>680674.3687074701</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680674.36870747</v>
+        <v>680674.3687074702</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680674.3687074699</v>
+        <v>680674.3687074702</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>592074.0889977628</v>
+        <v>592074.0889977627</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>592074.088997763</v>
+        <v>592074.0889977629</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374629.5039746509</v>
+        <v>374629.5039746511</v>
       </c>
       <c r="C2" t="n">
+        <v>374629.5039746512</v>
+      </c>
+      <c r="D2" t="n">
         <v>374629.503974651</v>
       </c>
-      <c r="D2" t="n">
-        <v>374629.5039746511</v>
-      </c>
       <c r="E2" t="n">
-        <v>289738.3839776286</v>
+        <v>289738.3839776288</v>
       </c>
       <c r="F2" t="n">
-        <v>289738.3839776287</v>
+        <v>289738.3839776288</v>
       </c>
       <c r="G2" t="n">
         <v>333095.9676653581</v>
       </c>
       <c r="H2" t="n">
-        <v>333095.9676653582</v>
+        <v>333095.967665358</v>
       </c>
       <c r="I2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="J2" t="n">
         <v>333095.9676653581</v>
       </c>
       <c r="K2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653579</v>
       </c>
       <c r="L2" t="n">
         <v>333095.967665358</v>
       </c>
       <c r="M2" t="n">
-        <v>333095.9676653579</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="N2" t="n">
         <v>333095.967665358</v>
       </c>
       <c r="O2" t="n">
-        <v>289738.3839776287</v>
+        <v>289738.3839776288</v>
       </c>
       <c r="P2" t="n">
         <v>289738.3839776287</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84888.90953886868</v>
+        <v>84888.9095388687</v>
       </c>
       <c r="C4" t="n">
-        <v>84888.90953886868</v>
+        <v>84888.90953886867</v>
       </c>
       <c r="D4" t="n">
         <v>84888.90953886868</v>
@@ -26429,37 +26429,37 @@
         <v>622.7246651156232</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7246651156232</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="O4" t="n">
         <v>622.7246651156232</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7246651156232</v>
+        <v>622.7246651156231</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108709.8442690073</v>
+        <v>-108709.8442690072</v>
       </c>
       <c r="C6" t="n">
+        <v>200088.8973430367</v>
+      </c>
+      <c r="D6" t="n">
         <v>200088.8973430365</v>
       </c>
-      <c r="D6" t="n">
-        <v>200088.8973430366</v>
-      </c>
       <c r="E6" t="n">
-        <v>233091.5622197672</v>
+        <v>232722.4703936933</v>
       </c>
       <c r="F6" t="n">
-        <v>233091.5622197673</v>
+        <v>232722.4703936934</v>
       </c>
       <c r="G6" t="n">
-        <v>194589.2331367075</v>
+        <v>194408.6525440584</v>
       </c>
       <c r="H6" t="n">
-        <v>261492.6294903402</v>
+        <v>261312.048897691</v>
       </c>
       <c r="I6" t="n">
-        <v>261492.6294903401</v>
+        <v>261312.048897691</v>
       </c>
       <c r="J6" t="n">
-        <v>20401.03640260349</v>
+        <v>20220.45580995436</v>
       </c>
       <c r="K6" t="n">
-        <v>261492.6294903401</v>
+        <v>261312.0488976909</v>
       </c>
       <c r="L6" t="n">
-        <v>261492.62949034</v>
+        <v>261312.0488976909</v>
       </c>
       <c r="M6" t="n">
-        <v>261492.6294903399</v>
+        <v>261312.048897691</v>
       </c>
       <c r="N6" t="n">
-        <v>261492.62949034</v>
+        <v>261312.048897691</v>
       </c>
       <c r="O6" t="n">
-        <v>233091.5622197673</v>
+        <v>232722.4703936934</v>
       </c>
       <c r="P6" t="n">
-        <v>233091.5622197673</v>
+        <v>232722.4703936932</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75.92579386097412</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>245.9394511971538</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.64748940421973</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>108.1480260442976</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>196.4890987163406</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>189.040573162235</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>114.3482504867227</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27794,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>8.893130557884234</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>127.2355941660191</v>
       </c>
       <c r="H8" t="n">
-        <v>216.2897881406864</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28064,10 +28064,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>126.945026968824</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.893130557884291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34704,7 +34704,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>514.0516906544433</v>
       </c>
       <c r="M2" t="n">
         <v>784.1601929209636</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.3945761139046</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
         <v>534.50171506985</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>504.6010349596355</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M3" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.63451273607753</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>476.9420291011018</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>784.1601929209636</v>
+        <v>537.4229778798328</v>
       </c>
       <c r="N5" t="n">
         <v>760.7889056955737</v>
@@ -34953,13 +34953,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>26.64359211279323</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>103.6844238641553</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35178,13 +35178,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>553.6112421071459</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>635.5771638404236</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>371.6049244215992</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>341.0311751787577</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>653.1358661750396</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35424,16 +35424,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.010727787312575</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>333.185881862945</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>403.3949631579654</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>784.1601929209636</v>
+        <v>439.7580527690987</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>390.8459044639358</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>176.1288133605725</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>862.2905560322727</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>542.304428641741</v>
+        <v>518.0448726000154</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>328.3029864149262</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>832.0152842855372</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>120.9475160573612</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37791,19 +37791,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.7889056955737</v>
+        <v>485.3608848912428</v>
       </c>
       <c r="O41" t="n">
-        <v>8.010727787312575</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>39.30138347586418</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38028,16 +38028,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>91.98170817472702</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="M45" t="n">
         <v>851.4920007015825</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
